--- a/DCIT 21 - IT 1C/Attendance Sheet - IT 1C.xlsx
+++ b/DCIT 21 - IT 1C/Attendance Sheet - IT 1C.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="208">
   <si>
     <t>SURNAME</t>
   </si>
@@ -6053,8 +6053,8 @@
   </sheetPr>
   <dimension ref="A3:O184"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView topLeftCell="A18" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="M45" sqref="M45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -6257,8 +6257,12 @@
       <c r="I14" s="9"/>
       <c r="J14" s="20"/>
       <c r="K14" s="9"/>
-      <c r="L14" s="15"/>
-      <c r="M14" s="15"/>
+      <c r="L14" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="M14" s="15" t="s">
+        <v>40</v>
+      </c>
       <c r="N14" s="15"/>
       <c r="O14" s="20"/>
     </row>
@@ -6285,8 +6289,12 @@
       <c r="I15" s="7"/>
       <c r="J15" s="7"/>
       <c r="K15" s="7"/>
-      <c r="L15" s="14"/>
-      <c r="M15" s="14"/>
+      <c r="L15" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="M15" s="14" t="s">
+        <v>40</v>
+      </c>
       <c r="N15" s="14"/>
       <c r="O15" s="14"/>
     </row>
@@ -6313,8 +6321,12 @@
       <c r="I16" s="7"/>
       <c r="J16" s="7"/>
       <c r="K16" s="7"/>
-      <c r="L16" s="14"/>
-      <c r="M16" s="14"/>
+      <c r="L16" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="M16" s="14" t="s">
+        <v>40</v>
+      </c>
       <c r="N16" s="14"/>
       <c r="O16" s="14"/>
     </row>
@@ -6341,8 +6353,12 @@
       <c r="I17" s="7"/>
       <c r="J17" s="7"/>
       <c r="K17" s="7"/>
-      <c r="L17" s="14"/>
-      <c r="M17" s="14"/>
+      <c r="L17" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="M17" s="14" t="s">
+        <v>30</v>
+      </c>
       <c r="N17" s="14"/>
       <c r="O17" s="14"/>
     </row>
@@ -6369,8 +6385,12 @@
       <c r="I18" s="7"/>
       <c r="J18" s="7"/>
       <c r="K18" s="7"/>
-      <c r="L18" s="14"/>
-      <c r="M18" s="14"/>
+      <c r="L18" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="M18" s="14" t="s">
+        <v>40</v>
+      </c>
       <c r="N18" s="14"/>
       <c r="O18" s="14"/>
     </row>
@@ -6397,8 +6417,12 @@
       <c r="I19" s="7"/>
       <c r="J19" s="7"/>
       <c r="K19" s="7"/>
-      <c r="L19" s="14"/>
-      <c r="M19" s="14"/>
+      <c r="L19" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="M19" s="14" t="s">
+        <v>40</v>
+      </c>
       <c r="N19" s="14"/>
       <c r="O19" s="14"/>
     </row>
@@ -6425,8 +6449,12 @@
       <c r="I20" s="7"/>
       <c r="J20" s="7"/>
       <c r="K20" s="7"/>
-      <c r="L20" s="14"/>
-      <c r="M20" s="14"/>
+      <c r="L20" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="M20" s="14" t="s">
+        <v>40</v>
+      </c>
       <c r="N20" s="14"/>
       <c r="O20" s="14"/>
     </row>
@@ -6453,8 +6481,12 @@
       <c r="I21" s="7"/>
       <c r="J21" s="7"/>
       <c r="K21" s="7"/>
-      <c r="L21" s="14"/>
-      <c r="M21" s="14"/>
+      <c r="L21" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="M21" s="14" t="s">
+        <v>40</v>
+      </c>
       <c r="N21" s="14"/>
       <c r="O21" s="14"/>
     </row>
@@ -6481,8 +6513,12 @@
       <c r="I22" s="7"/>
       <c r="J22" s="7"/>
       <c r="K22" s="7"/>
-      <c r="L22" s="14"/>
-      <c r="M22" s="14"/>
+      <c r="L22" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="M22" s="14" t="s">
+        <v>30</v>
+      </c>
       <c r="N22" s="14"/>
       <c r="O22" s="14"/>
     </row>
@@ -6509,8 +6545,12 @@
       <c r="I23" s="7"/>
       <c r="J23" s="7"/>
       <c r="K23" s="7"/>
-      <c r="L23" s="14"/>
-      <c r="M23" s="14"/>
+      <c r="L23" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="M23" s="14" t="s">
+        <v>40</v>
+      </c>
       <c r="N23" s="14"/>
       <c r="O23" s="14"/>
     </row>
@@ -6537,8 +6577,12 @@
       <c r="I24" s="7"/>
       <c r="J24" s="7"/>
       <c r="K24" s="7"/>
-      <c r="L24" s="14"/>
-      <c r="M24" s="14"/>
+      <c r="L24" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="M24" s="14" t="s">
+        <v>40</v>
+      </c>
       <c r="N24" s="14"/>
       <c r="O24" s="14"/>
     </row>
@@ -6565,8 +6609,12 @@
       <c r="I25" s="7"/>
       <c r="J25" s="7"/>
       <c r="K25" s="7"/>
-      <c r="L25" s="14"/>
-      <c r="M25" s="14"/>
+      <c r="L25" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="M25" s="14" t="s">
+        <v>30</v>
+      </c>
       <c r="N25" s="14"/>
       <c r="O25" s="14"/>
     </row>
@@ -6593,8 +6641,12 @@
       <c r="I26" s="7"/>
       <c r="J26" s="7"/>
       <c r="K26" s="7"/>
-      <c r="L26" s="14"/>
-      <c r="M26" s="14"/>
+      <c r="L26" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="M26" s="14" t="s">
+        <v>40</v>
+      </c>
       <c r="N26" s="14"/>
       <c r="O26" s="14"/>
     </row>
@@ -6621,8 +6673,12 @@
       <c r="I27" s="7"/>
       <c r="J27" s="7"/>
       <c r="K27" s="7"/>
-      <c r="L27" s="14"/>
-      <c r="M27" s="14"/>
+      <c r="L27" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="M27" s="14" t="s">
+        <v>40</v>
+      </c>
       <c r="N27" s="14"/>
       <c r="O27" s="14"/>
     </row>
@@ -6649,8 +6705,12 @@
       <c r="I28" s="7"/>
       <c r="J28" s="7"/>
       <c r="K28" s="7"/>
-      <c r="L28" s="14"/>
-      <c r="M28" s="14"/>
+      <c r="L28" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="M28" s="14" t="s">
+        <v>30</v>
+      </c>
       <c r="N28" s="14"/>
       <c r="O28" s="14"/>
     </row>
@@ -6677,8 +6737,12 @@
       <c r="I29" s="7"/>
       <c r="J29" s="7"/>
       <c r="K29" s="7"/>
-      <c r="L29" s="14"/>
-      <c r="M29" s="14"/>
+      <c r="L29" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="M29" s="14" t="s">
+        <v>40</v>
+      </c>
       <c r="N29" s="14"/>
       <c r="O29" s="14"/>
     </row>
@@ -6705,8 +6769,12 @@
       <c r="I30" s="7"/>
       <c r="J30" s="7"/>
       <c r="K30" s="7"/>
-      <c r="L30" s="14"/>
-      <c r="M30" s="14"/>
+      <c r="L30" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="M30" s="14" t="s">
+        <v>40</v>
+      </c>
       <c r="N30" s="14"/>
       <c r="O30" s="14"/>
     </row>
@@ -6733,8 +6801,12 @@
       <c r="I31" s="7"/>
       <c r="J31" s="7"/>
       <c r="K31" s="7"/>
-      <c r="L31" s="14"/>
-      <c r="M31" s="14"/>
+      <c r="L31" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="M31" s="14" t="s">
+        <v>30</v>
+      </c>
       <c r="N31" s="14"/>
       <c r="O31" s="14"/>
     </row>
@@ -6761,8 +6833,12 @@
       <c r="I32" s="7"/>
       <c r="J32" s="7"/>
       <c r="K32" s="7"/>
-      <c r="L32" s="14"/>
-      <c r="M32" s="14"/>
+      <c r="L32" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="M32" s="14" t="s">
+        <v>40</v>
+      </c>
       <c r="N32" s="14"/>
       <c r="O32" s="14"/>
     </row>
@@ -6789,8 +6865,12 @@
       <c r="I33" s="7"/>
       <c r="J33" s="7"/>
       <c r="K33" s="7"/>
-      <c r="L33" s="14"/>
-      <c r="M33" s="14"/>
+      <c r="L33" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="M33" s="14" t="s">
+        <v>40</v>
+      </c>
       <c r="N33" s="14"/>
       <c r="O33" s="14"/>
     </row>
@@ -6817,8 +6897,12 @@
       <c r="I34" s="7"/>
       <c r="J34" s="7"/>
       <c r="K34" s="7"/>
-      <c r="L34" s="14"/>
-      <c r="M34" s="14"/>
+      <c r="L34" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="M34" s="14" t="s">
+        <v>30</v>
+      </c>
       <c r="N34" s="14"/>
       <c r="O34" s="14"/>
     </row>
@@ -6845,8 +6929,12 @@
       <c r="I35" s="7"/>
       <c r="J35" s="7"/>
       <c r="K35" s="7"/>
-      <c r="L35" s="14"/>
-      <c r="M35" s="14"/>
+      <c r="L35" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="M35" s="14" t="s">
+        <v>40</v>
+      </c>
       <c r="N35" s="14"/>
       <c r="O35" s="14"/>
     </row>
@@ -6873,8 +6961,12 @@
       <c r="I36" s="7"/>
       <c r="J36" s="7"/>
       <c r="K36" s="7"/>
-      <c r="L36" s="14"/>
-      <c r="M36" s="14"/>
+      <c r="L36" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="M36" s="14" t="s">
+        <v>30</v>
+      </c>
       <c r="N36" s="14"/>
       <c r="O36" s="14"/>
     </row>
@@ -6901,8 +6993,12 @@
       <c r="I37" s="7"/>
       <c r="J37" s="7"/>
       <c r="K37" s="7"/>
-      <c r="L37" s="14"/>
-      <c r="M37" s="14"/>
+      <c r="L37" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="M37" s="14" t="s">
+        <v>40</v>
+      </c>
       <c r="N37" s="14"/>
       <c r="O37" s="14"/>
     </row>
@@ -6929,8 +7025,12 @@
       <c r="I38" s="7"/>
       <c r="J38" s="7"/>
       <c r="K38" s="7"/>
-      <c r="L38" s="14"/>
-      <c r="M38" s="14"/>
+      <c r="L38" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="M38" s="14" t="s">
+        <v>40</v>
+      </c>
       <c r="N38" s="14"/>
       <c r="O38" s="14"/>
     </row>
@@ -8723,7 +8823,7 @@
   <dimension ref="A1:O188"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A3" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3:K4"/>
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -8899,8 +8999,12 @@
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
       <c r="K8" s="9"/>
-      <c r="L8" s="15"/>
-      <c r="M8" s="15"/>
+      <c r="L8" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="M8" s="15" t="s">
+        <v>40</v>
+      </c>
       <c r="N8" s="15"/>
       <c r="O8" s="15"/>
     </row>
@@ -8926,8 +9030,12 @@
       <c r="I9" s="7"/>
       <c r="J9" s="7"/>
       <c r="K9" s="7"/>
-      <c r="L9" s="14"/>
-      <c r="M9" s="14"/>
+      <c r="L9" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="M9" s="14" t="s">
+        <v>40</v>
+      </c>
       <c r="N9" s="14"/>
       <c r="O9" s="14"/>
     </row>
@@ -8953,8 +9061,12 @@
       <c r="I10" s="7"/>
       <c r="J10" s="7"/>
       <c r="K10" s="7"/>
-      <c r="L10" s="14"/>
-      <c r="M10" s="14"/>
+      <c r="L10" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="M10" s="14" t="s">
+        <v>40</v>
+      </c>
       <c r="N10" s="14"/>
       <c r="O10" s="14"/>
     </row>
@@ -8980,8 +9092,12 @@
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
       <c r="K11" s="7"/>
-      <c r="L11" s="14"/>
-      <c r="M11" s="14"/>
+      <c r="L11" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="M11" s="14" t="s">
+        <v>40</v>
+      </c>
       <c r="N11" s="14"/>
       <c r="O11" s="14"/>
     </row>
@@ -9005,8 +9121,12 @@
       <c r="I12" s="7"/>
       <c r="J12" s="7"/>
       <c r="K12" s="7"/>
-      <c r="L12" s="14"/>
-      <c r="M12" s="14"/>
+      <c r="L12" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="M12" s="14" t="s">
+        <v>40</v>
+      </c>
       <c r="N12" s="14"/>
       <c r="O12" s="14"/>
     </row>
@@ -9032,8 +9152,12 @@
       <c r="I13" s="7"/>
       <c r="J13" s="7"/>
       <c r="K13" s="7"/>
-      <c r="L13" s="14"/>
-      <c r="M13" s="14"/>
+      <c r="L13" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="M13" s="14" t="s">
+        <v>30</v>
+      </c>
       <c r="N13" s="14"/>
       <c r="O13" s="14"/>
     </row>
@@ -9059,8 +9183,12 @@
       <c r="I14" s="7"/>
       <c r="J14" s="7"/>
       <c r="K14" s="7"/>
-      <c r="L14" s="14"/>
-      <c r="M14" s="14"/>
+      <c r="L14" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="M14" s="14" t="s">
+        <v>40</v>
+      </c>
       <c r="N14" s="14"/>
       <c r="O14" s="14"/>
     </row>
@@ -9086,8 +9214,12 @@
       <c r="I15" s="7"/>
       <c r="J15" s="7"/>
       <c r="K15" s="7"/>
-      <c r="L15" s="14"/>
-      <c r="M15" s="14"/>
+      <c r="L15" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="M15" s="14" t="s">
+        <v>40</v>
+      </c>
       <c r="N15" s="14"/>
       <c r="O15" s="14"/>
     </row>
